--- a/Cronograma Projeto.xlsx
+++ b/Cronograma Projeto.xlsx
@@ -5,27 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PUC GO\Gerência de projetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F97B053E-0956-4B0B-AD93-4F539EFAE346}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF3CEE04-F527-4EB7-97DC-41F7D4440A3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" xr2:uid="{9B457D3D-582B-4FAF-B694-9EC81CB38656}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>SPRINT</t>
+  </si>
   <si>
     <t>TAREFAS</t>
   </si>
@@ -39,28 +42,40 @@
     <t>RESPONSÁVEL</t>
   </si>
   <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>Plano de projeto</t>
+  </si>
+  <si>
+    <t>Isabela, Lucas</t>
+  </si>
+  <si>
+    <t>Definir os riscos do projeto</t>
+  </si>
+  <si>
+    <t>Gabriel, Lucas, Gabriela</t>
+  </si>
+  <si>
+    <t>Entregar plano</t>
+  </si>
+  <si>
+    <t>Isabela, Gabriela, Higor, Lucas, Gabriel</t>
+  </si>
+  <si>
+    <t>Definir e documentar requisitos</t>
+  </si>
+  <si>
     <t>Gabriel, Lucas</t>
   </si>
   <si>
-    <t>Plano de projeto</t>
-  </si>
-  <si>
-    <t>Isabela, Lucas</t>
-  </si>
-  <si>
-    <t>Definir os riscos do projeto</t>
-  </si>
-  <si>
-    <t>Gabriel, Lucas, Gabriela</t>
-  </si>
-  <si>
-    <t>Definir e documentar requisitos</t>
+    <t>SPRINT 2</t>
   </si>
   <si>
     <t>Matriz de rastreabilidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Definir histórias </t>
+    <t xml:space="preserve">Definir estórias </t>
   </si>
   <si>
     <t>Isabela, Gabriela, Higor</t>
@@ -69,39 +84,47 @@
     <t>Desenvolvimento</t>
   </si>
   <si>
-    <t>Isabela, Gabriela, Higor, Lucas, Gabriel</t>
-  </si>
-  <si>
-    <t>Entregar plano</t>
-  </si>
-  <si>
-    <t>Entregar artefatos</t>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Execução de testes</t>
+  </si>
+  <si>
+    <t>Gabriela, Higor</t>
+  </si>
+  <si>
+    <t>Entrega do produto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,17 +147,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -450,149 +482,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15F588-7315-4037-AF03-A8CDB25E8D22}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.25"/>
+    <col min="2" max="2" width="27.25" style="2"/>
+    <col min="3" max="3" width="15.875" style="3"/>
+    <col min="4" max="4" width="19.75" style="3"/>
+    <col min="5" max="5" width="37.375" style="3"/>
+    <col min="6" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6">
         <v>43400</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="6">
         <v>43433</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" spans="1:5" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
         <v>43400</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="6">
         <v>43433</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43403</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43403</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43404</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43406</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
-        <v>43403</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43403</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>43404</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C6" s="6">
         <v>43406</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43406</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43408</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="6">
+        <v>43409</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43409</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43412</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43412</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43434</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>43406</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43408</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43409</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43409</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43409</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43419</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>43434</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43438</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43439</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43439</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>